--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_MCPS_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_MCPS_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.198226829677</v>
+        <v>1.215597054981016</v>
       </c>
       <c r="D2">
-        <v>0.2309978304985758</v>
+        <v>0.2370224868694484</v>
       </c>
       <c r="E2">
         <v>0.7069106860863764</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>2.03911449122748</v>
+        <v>1.801707070589514</v>
       </c>
       <c r="D3">
-        <v>0.04159491825272599</v>
+        <v>0.08531326570668618</v>
       </c>
       <c r="E3">
         <v>0.7069106860863764</v>
@@ -479,7 +479,7 @@
         <v>0.6576417141754973</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.976080255160046</v>
+        <v>1.576522444534856</v>
       </c>
       <c r="D4">
-        <v>0.04830915714082518</v>
+        <v>0.129177452807973</v>
       </c>
       <c r="E4">
         <v>0.7069106860863764</v>
@@ -505,7 +505,7 @@
         <v>0.661878100762625</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>4.818870159067665</v>
+        <v>5.265548102927215</v>
       </c>
       <c r="D5">
-        <v>1.573889330197531E-06</v>
+        <v>2.77630890566094E-05</v>
       </c>
       <c r="E5">
         <v>0.7069106860863764</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.6151101911662774</v>
+        <v>0.5855778351062695</v>
       </c>
       <c r="D6">
-        <v>0.538565308897677</v>
+        <v>0.5641185150759507</v>
       </c>
       <c r="E6">
         <v>0.6744356805712423</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.5694692012025464</v>
+        <v>0.7349359267559981</v>
       </c>
       <c r="D7">
-        <v>0.569113942739524</v>
+        <v>0.4701408986125641</v>
       </c>
       <c r="E7">
         <v>0.6744356805712423</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>3.007282792150325</v>
+        <v>3.126536146024777</v>
       </c>
       <c r="D8">
-        <v>0.002675099087487087</v>
+        <v>0.004910503644846465</v>
       </c>
       <c r="E8">
         <v>0.6744356805712423</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.2307981552310455</v>
+        <v>-0.1905783498554184</v>
       </c>
       <c r="D9">
-        <v>0.8174997334632492</v>
+        <v>0.8506036388228693</v>
       </c>
       <c r="E9">
         <v>0.6576417141754973</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.486886711943579</v>
+        <v>1.770872366068002</v>
       </c>
       <c r="D10">
-        <v>0.01298314321989902</v>
+        <v>0.0904377783540018</v>
       </c>
       <c r="E10">
         <v>0.6576417141754973</v>
@@ -661,7 +661,7 @@
         <v>0.606093277050508</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>2.911742832597697</v>
+        <v>2.295389372016389</v>
       </c>
       <c r="D11">
-        <v>0.003641623031532371</v>
+        <v>0.03161525401363829</v>
       </c>
       <c r="E11">
         <v>0.661878100762625</v>
